--- a/tests/onehot.xlsx
+++ b/tests/onehot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_main\ODDBOOT\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BCE6D-C8A7-4D40-8E57-98B79206C9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B409F6-D0B9-4684-B2D5-62D482E413FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28290" yWindow="4695" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26475" yWindow="1350" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="onehot" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/onehot.xlsx
+++ b/tests/onehot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_main\ODDBOOT\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B409F6-D0B9-4684-B2D5-62D482E413FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EF2AF2-1BEE-4FA7-B7BD-D39ECB953ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26475" yWindow="1350" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>X1</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Wednesday</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>cow</t>
   </si>
 </sst>
 </file>
@@ -908,7 +917,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,8 +946,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.118610669</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2.4395717549999998</v>
@@ -960,8 +969,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.300224398</v>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0.57322748199999995</v>
@@ -983,8 +992,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>7.0007572000000004E-2</v>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4">
         <v>8.8167891209999993</v>
@@ -1006,8 +1015,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.167971801</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1.061725571</v>
@@ -1029,8 +1038,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.97288381300000004</v>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0.69827068699999995</v>
@@ -1052,8 +1061,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.72319287399999999</v>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7">
         <v>7.9269279819999996</v>
@@ -1075,8 +1084,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>4.2877255000000003E-2</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>5.0053601429999999</v>
@@ -1098,8 +1107,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.73860885300000001</v>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>5.4242960509999998</v>
@@ -1121,8 +1130,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.93626589999999998</v>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10">
         <v>8.1653128129999999</v>
@@ -1144,8 +1153,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.24325685899999999</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>8.2683263969999992</v>
